--- a/data/secar_monthly_data.xlsx
+++ b/data/secar_monthly_data.xlsx
@@ -4637,40 +4637,40 @@
         <v>21.7</v>
       </c>
       <c r="D133" t="n">
-        <v>27.4</v>
+        <v>57.9</v>
       </c>
       <c r="E133" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="F133" t="n">
-        <v>3.8</v>
+        <v>76.2</v>
       </c>
       <c r="G133" t="n">
-        <v>8.300000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="H133" t="n">
-        <v>14.38569828469022</v>
+        <v>12.16423632907861</v>
       </c>
       <c r="I133" t="n">
-        <v>19.81428571428571</v>
+        <v>17.25555555555556</v>
       </c>
       <c r="J133" t="n">
-        <v>10.25714285714286</v>
+        <v>7.892592592592592</v>
       </c>
       <c r="K133" t="n">
-        <v>80.58099718381978</v>
+        <v>77.29858059566158</v>
       </c>
       <c r="L133" t="n">
-        <v>10.93633512544803</v>
+        <v>8.093512851363604</v>
       </c>
       <c r="M133" t="n">
-        <v>1.253843445980543</v>
+        <v>2.326006137964707</v>
       </c>
       <c r="N133" t="n">
-        <v>1022.951523297491</v>
+        <v>1024.29538083281</v>
       </c>
       <c r="O133" t="n">
-        <v>4.6</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/secar_monthly_data.xlsx
+++ b/data/secar_monthly_data.xlsx
@@ -4649,25 +4649,25 @@
         <v>4.1</v>
       </c>
       <c r="H133" t="n">
-        <v>12.16423632907861</v>
+        <v>12.00064964157706</v>
       </c>
       <c r="I133" t="n">
-        <v>17.25555555555556</v>
+        <v>17.37096774193548</v>
       </c>
       <c r="J133" t="n">
-        <v>7.892592592592592</v>
+        <v>7.674193548387097</v>
       </c>
       <c r="K133" t="n">
-        <v>77.29858059566158</v>
+        <v>77.72058243727598</v>
       </c>
       <c r="L133" t="n">
-        <v>8.093512851363604</v>
+        <v>8.016087813620072</v>
       </c>
       <c r="M133" t="n">
-        <v>2.326006137964707</v>
+        <v>2.24152688172043</v>
       </c>
       <c r="N133" t="n">
-        <v>1024.29538083281</v>
+        <v>1025.064040322581</v>
       </c>
       <c r="O133" t="n">
         <v>25</v>

--- a/data/secar_monthly_data.xlsx
+++ b/data/secar_monthly_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:O134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4649,7 +4649,7 @@
         <v>4.1</v>
       </c>
       <c r="H133" t="n">
-        <v>12.00064964157706</v>
+        <v>11.99838709677419</v>
       </c>
       <c r="I133" t="n">
         <v>17.37096774193548</v>
@@ -4658,19 +4658,66 @@
         <v>7.674193548387097</v>
       </c>
       <c r="K133" t="n">
-        <v>77.72058243727598</v>
+        <v>77.72043010752688</v>
       </c>
       <c r="L133" t="n">
-        <v>8.016087813620072</v>
+        <v>8.015098566308245</v>
       </c>
       <c r="M133" t="n">
-        <v>2.24152688172043</v>
+        <v>2.223118279569892</v>
       </c>
       <c r="N133" t="n">
-        <v>1025.064040322581</v>
+        <v>1025.067361111111</v>
       </c>
       <c r="O133" t="n">
-        <v>25</v>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="C134" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H134" t="n">
+        <v>13.39805720899471</v>
+      </c>
+      <c r="I134" t="n">
+        <v>18.55833333333333</v>
+      </c>
+      <c r="J134" t="n">
+        <v>9.708333333333334</v>
+      </c>
+      <c r="K134" t="n">
+        <v>76.40575396825398</v>
+      </c>
+      <c r="L134" t="n">
+        <v>9.15324074074074</v>
+      </c>
+      <c r="M134" t="n">
+        <v>2.53015873015873</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1020.062541335979</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/secar_monthly_data.xlsx
+++ b/data/secar_monthly_data.xlsx
@@ -4684,40 +4684,40 @@
         <v>21.8</v>
       </c>
       <c r="D134" t="n">
-        <v>38.6</v>
+        <v>40.2</v>
       </c>
       <c r="E134" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>16.6</v>
       </c>
       <c r="G134" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="H134" t="n">
-        <v>13.39805720899471</v>
+        <v>11.88054956896552</v>
       </c>
       <c r="I134" t="n">
-        <v>18.55833333333333</v>
+        <v>16.56</v>
       </c>
       <c r="J134" t="n">
-        <v>9.708333333333334</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>76.40575396825398</v>
+        <v>74.9341714559387</v>
       </c>
       <c r="L134" t="n">
-        <v>9.15324074074074</v>
+        <v>7.394932950191571</v>
       </c>
       <c r="M134" t="n">
-        <v>2.53015873015873</v>
+        <v>2.859694683908046</v>
       </c>
       <c r="N134" t="n">
-        <v>1020.062541335979</v>
+        <v>1021.628958333333</v>
       </c>
       <c r="O134" t="n">
-        <v>0.6000000000000001</v>
+        <v>14.6</v>
       </c>
     </row>
   </sheetData>
